--- a/WINE/repeated_holdout_cross_val_50_wine.xlsx
+++ b/WINE/repeated_holdout_cross_val_50_wine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Π.Μ.Σ Στατιστική-Χρηματοοικονομικά και Αναλογιστικά Μαθηματικά\ΜΑΘΗΜΑΤΑ 2ου Εξαμήνου\Εφαρμοσμένη Πολυμεταβλητή Ανάλυση και Big Data\Πτυχιακή\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68802C-364C-4ADE-969C-8B05D39E9FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D38759-2184-4ACC-BA9D-2D841CE05E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shannon" sheetId="1" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -4949,7 +4949,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14442,8 +14442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14716,7 +14716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29623C0-5EE9-41CE-B032-A3BA4799702C}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
